--- a/systemdata/variable_list.xlsx
+++ b/systemdata/variable_list.xlsx
@@ -276,10 +276,10 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.66"/>
@@ -754,6 +754,9 @@
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/systemdata/variable_list.xlsx
+++ b/systemdata/variable_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">tags and comments</t>
   </si>
   <si>
-    <t xml:space="preserve">It remains an open question</t>
+    <t xml:space="preserve">Variable 1 – Alternative 1</t>
   </si>
   <si>
     <t xml:space="preserve">Code guide for var1</t>
@@ -71,10 +71,10 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">It is frequently disputed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are you asking me for?</t>
+    <t xml:space="preserve">Variable 1 – Alternative 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 1 – Alternative 3</t>
   </si>
   <si>
     <t xml:space="preserve">var2</t>
@@ -83,22 +83,31 @@
     <t xml:space="preserve">Variable 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Variable 2 – Alternative 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code guide for var2</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
+    <t xml:space="preserve">Variable 2 – Alternative 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 2 – Alternative 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">text_var_one</t>
   </si>
   <si>
     <t xml:space="preserve">Text variable</t>
   </si>
   <si>
-    <t xml:space="preserve">Write an essay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How are you doing?</t>
+    <t xml:space="preserve">Description: text field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code guide text field</t>
   </si>
   <si>
     <t xml:space="preserve">v3</t>
@@ -110,13 +119,22 @@
     <t xml:space="preserve">multichoice</t>
   </si>
   <si>
+    <t xml:space="preserve">Multiple choice variable – Alternative 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Multiple choice variable</t>
   </si>
   <si>
     <t xml:space="preserve">Another headline</t>
   </si>
   <si>
-    <t xml:space="preserve">Above my paygrade</t>
+    <t xml:space="preserve">Multiple choice variable – Alternative 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple choice variable – Alternative 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple choice variable – Alternative 4</t>
   </si>
   <si>
     <t xml:space="preserve">any_name_really</t>
@@ -128,22 +146,22 @@
     <t xml:space="preserve">a</t>
   </si>
   <si>
-    <t xml:space="preserve">a is the answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a, b, or c?</t>
+    <t xml:space="preserve">Variable 5 – Alternative 1 (a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code guide for variable “any_name_really” </t>
   </si>
   <si>
     <t xml:space="preserve">b</t>
   </si>
   <si>
-    <t xml:space="preserve">or is it b?</t>
+    <t xml:space="preserve">Variable 5 – Alternative 2 (b)</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
-    <t xml:space="preserve">c seems rights</t>
+    <t xml:space="preserve">Variable 5 – Alternative 3 (c)</t>
   </si>
   <si>
     <t xml:space="preserve">text2</t>
@@ -152,7 +170,7 @@
     <t xml:space="preserve">Just another text variable</t>
   </si>
   <si>
-    <t xml:space="preserve">placeholder text, manipulated in outcomes.xlsx</t>
+    <t xml:space="preserve">(placeholder text, manipulated in variable_list.xlsx)</t>
   </si>
 </sst>
 </file>
@@ -269,17 +287,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A25"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.66"/>
@@ -375,13 +393,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,47 +421,47 @@
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>14</v>
@@ -451,52 +469,52 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>14</v>
@@ -504,38 +522,38 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/systemdata/variable_list.xlsx
+++ b/systemdata/variable_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">Variable 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre-filled</t>
   </si>
   <si>
     <t xml:space="preserve">Variable 2 – Alternative 1</t>
@@ -294,10 +297,10 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.66"/>
@@ -392,14 +395,17 @@
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,7 +416,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,47 +427,47 @@
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>14</v>
@@ -469,52 +475,52 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>14</v>
@@ -522,38 +528,38 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
